--- a/3702076037/2013/BANGKE GTGT - 13.xlsx
+++ b/3702076037/2013/BANGKE GTGT - 13.xlsx
@@ -2196,6 +2196,18 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2217,17 +2229,14 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2253,23 +2262,29 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2289,20 +2304,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2315,36 +2345,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2387,7 +2387,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2592,7 +2592,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3101,70 +3101,70 @@
       <c r="M3" s="34"/>
     </row>
     <row r="4" spans="1:15" s="33" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
     </row>
     <row r="5" spans="1:15" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
     </row>
     <row r="6" spans="1:15" s="33" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
     </row>
     <row r="7" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="128" t="str">
+      <c r="B7" s="121" t="str">
         <f>"Kỳ tính thuế: "&amp;IF(LEFT(O14,1)="Q","Quý "&amp;RIGHT(O14,1),"Tháng "&amp;O14)&amp;" Năm "&amp;YEAR(F115)</f>
         <v>Kỳ tính thuế: Tháng 9 Năm 2013</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
     </row>
     <row r="8" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="35"/>
@@ -3189,67 +3189,67 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
     </row>
     <row r="12" spans="1:15" s="33" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="119" t="s">
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="119" t="s">
+      <c r="H12" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="119" t="s">
+      <c r="I12" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="119" t="s">
+      <c r="J12" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="120" t="s">
+      <c r="K12" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="119" t="s">
+      <c r="L12" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="119" t="s">
+      <c r="M12" s="123" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="33" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="121"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="119"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
     </row>
     <row r="14" spans="1:15" s="33" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="121"/>
+      <c r="B14" s="125"/>
       <c r="C14" s="39" t="s">
         <v>43</v>
       </c>
@@ -3262,13 +3262,13 @@
       <c r="F14" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
       <c r="N14" s="116" t="str">
         <f>IF(OR($O$14=4,$O$14=6,$O$14=9,$O$14=11),"30",IF($O$14=2,"28","31"))</f>
         <v>30</v>
@@ -7795,11 +7795,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B11:M11"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
@@ -7809,6 +7804,11 @@
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B11:M11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14">
@@ -7826,12 +7826,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:N147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -7887,66 +7887,66 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="138"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="140" t="str">
+      <c r="B7" s="132" t="str">
         <f>"Kỳ tính thuế: "&amp;IF(LEFT(N14,1)="Q","Quý "&amp;RIGHT(N14,1),"Tháng "&amp;N14)&amp;" Năm "&amp;YEAR(F23)</f>
         <v>Kỳ tính thuế: Quý 4 Năm 2013</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="13"/>
@@ -7970,62 +7970,62 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="133" t="s">
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="133" t="s">
+      <c r="H12" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="133" t="s">
+      <c r="I12" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="133" t="s">
+      <c r="J12" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="133" t="s">
+      <c r="K12" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="133" t="s">
+      <c r="L12" s="136" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="133"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="133"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
     </row>
     <row r="14" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="133"/>
+      <c r="B14" s="136"/>
       <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
@@ -8038,12 +8038,12 @@
       <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
       <c r="M14" s="116" t="str">
         <f>IF(OR($N$14=4,$N$14=6,$N$14=9,$N$14=11),"30",IF($N$14=2,"28","31"))</f>
         <v>31</v>
@@ -8088,16 +8088,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="17"/>
@@ -8118,16 +8118,16 @@
       <c r="L17" s="19"/>
     </row>
     <row r="18" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="130" t="s">
+      <c r="B18" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="21"/>
@@ -8148,16 +8148,16 @@
       <c r="L19" s="19"/>
     </row>
     <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="21"/>
@@ -8192,7 +8192,7 @@
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
     </row>
-    <row r="23" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4">
         <f>IF(G23&lt;&gt;"",ROW()-22,"")</f>
         <v>1</v>
@@ -8229,7 +8229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="4">
         <f t="shared" ref="B24:B87" si="1">IF(G24&lt;&gt;"",ROW()-22,"")</f>
         <v>2</v>
@@ -8266,7 +8266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -8303,7 +8303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -8340,7 +8340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -8377,7 +8377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -8451,7 +8451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -8488,7 +8488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -8525,7 +8525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -8562,7 +8562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -8599,7 +8599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -8636,7 +8636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -8673,7 +8673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -8710,7 +8710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -8747,7 +8747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -8784,7 +8784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="4">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -8821,7 +8821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="4">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -8858,7 +8858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="4">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -8895,7 +8895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="4">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -8932,7 +8932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="4">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -8969,7 +8969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="4">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -9006,7 +9006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="4">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -9043,7 +9043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="4">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -9080,7 +9080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="4">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -9117,7 +9117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="4">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -9154,7 +9154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="4">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -9191,7 +9191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="4">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -9228,7 +9228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="4">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -9265,7 +9265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -9302,7 +9302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="4">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -9339,7 +9339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="4">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -9376,7 +9376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="4">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -9413,7 +9413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="4">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -9450,7 +9450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="4">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -9487,7 +9487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="4">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -9524,7 +9524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="4">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -9561,7 +9561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="4">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -9598,7 +9598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="4">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -9635,7 +9635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -9672,7 +9672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="4">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -9709,7 +9709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="4">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -9746,7 +9746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="4">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -9783,7 +9783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="4">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -9820,7 +9820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="4">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -9857,7 +9857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="4">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -9894,7 +9894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="4">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -9931,7 +9931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="4">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -9968,7 +9968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="4">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -10005,7 +10005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="4">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -10042,7 +10042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="4">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -10079,7 +10079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="4">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -10116,7 +10116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="4">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -10153,7 +10153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="4">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -10190,7 +10190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="4">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -10227,7 +10227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="4">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -10264,7 +10264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="4">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -10301,7 +10301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="4">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -10338,7 +10338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="4">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -10375,7 +10375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="4">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -10412,7 +10412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="4">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -10449,7 +10449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="4">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -10486,7 +10486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="4">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -10523,7 +10523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="4">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -10560,7 +10560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="4">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -10597,7 +10597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="4">
         <f t="shared" ref="B88:B136" si="3">IF(G88&lt;&gt;"",ROW()-22,"")</f>
         <v>66</v>
@@ -10634,7 +10634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="4">
         <f t="shared" si="3"/>
         <v>67</v>
@@ -10671,7 +10671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="4">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -10708,7 +10708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="4">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -10745,7 +10745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="4">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -10782,7 +10782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="4">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -10819,7 +10819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="4">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -10856,7 +10856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="4">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -10893,7 +10893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="4">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -10930,7 +10930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="2:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="4">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -10967,7 +10967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="2:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="4">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -11004,7 +11004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="2:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="4">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -11041,7 +11041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="2:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="4">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -11078,7 +11078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="4">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -11115,7 +11115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="2:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="4">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -11152,7 +11152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="2:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="4">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -12497,7 +12497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="2:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -12526,26 +12526,26 @@
       <c r="I137" s="24"/>
       <c r="J137" s="25">
         <f>SUBTOTAL(9,J23:J136)</f>
-        <v>476118249</v>
+        <v>1574594482</v>
       </c>
       <c r="K137" s="25">
         <f>SUBTOTAL(9,K23:K136)</f>
-        <v>45166827</v>
+        <v>152569448</v>
       </c>
       <c r="L137" s="26"/>
     </row>
     <row r="138" spans="2:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="139" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="130" t="s">
+      <c r="B139" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="C139" s="131"/>
-      <c r="D139" s="131"/>
-      <c r="E139" s="131"/>
-      <c r="F139" s="131"/>
-      <c r="G139" s="131"/>
-      <c r="H139" s="131"/>
-      <c r="I139" s="131"/>
+      <c r="C139" s="134"/>
+      <c r="D139" s="134"/>
+      <c r="E139" s="134"/>
+      <c r="F139" s="134"/>
+      <c r="G139" s="134"/>
+      <c r="H139" s="134"/>
+      <c r="I139" s="134"/>
       <c r="J139" s="16"/>
       <c r="K139" s="16"/>
       <c r="L139" s="21"/>
@@ -12576,7 +12576,7 @@
       <c r="G141" s="11"/>
       <c r="H141" s="112">
         <f>J137</f>
-        <v>476118249</v>
+        <v>1574594482</v>
       </c>
       <c r="I141" s="11"/>
       <c r="L141" s="11"/>
@@ -12592,7 +12592,7 @@
       <c r="G142" s="11"/>
       <c r="H142" s="112">
         <f>K137</f>
-        <v>45166827</v>
+        <v>152569448</v>
       </c>
       <c r="I142" s="11"/>
       <c r="L142" s="11"/>
@@ -12658,19 +12658,8 @@
       <c r="L147" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A22:N136">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="Q4"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A22:N136"/>
   <mergeCells count="17">
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B16:I16"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B20:I20"/>
     <mergeCell ref="B139:I139"/>
@@ -12683,6 +12672,11 @@
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14">
@@ -12725,23 +12719,23 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="146"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="151"/>
       <c r="R2" s="6" t="s">
         <v>350</v>
       </c>
@@ -12750,23 +12744,23 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="148"/>
-      <c r="O3" s="148"/>
-      <c r="P3" s="149"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="154"/>
       <c r="R3" s="6" t="s">
         <v>352</v>
       </c>
@@ -12776,22 +12770,22 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="93"/>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="150"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="146"/>
       <c r="R4" s="6" t="s">
         <v>354</v>
       </c>
@@ -12801,22 +12795,22 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="93"/>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="141"/>
-      <c r="P5" s="150"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="146"/>
       <c r="R5" s="6" t="s">
         <v>356</v>
       </c>
@@ -12827,21 +12821,21 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="93"/>
       <c r="C6" s="94"/>
-      <c r="D6" s="141" t="s">
+      <c r="D6" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="142"/>
-      <c r="N6" s="142"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="143"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="142"/>
       <c r="R6" s="6" t="s">
         <v>358</v>
       </c>
@@ -12852,21 +12846,21 @@
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="93"/>
       <c r="C7" s="94"/>
-      <c r="D7" s="141" t="s">
+      <c r="D7" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="142"/>
-      <c r="P7" s="143"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="142"/>
       <c r="R7" s="6" t="s">
         <v>359</v>
       </c>
@@ -12877,21 +12871,21 @@
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="93"/>
       <c r="C8" s="94"/>
-      <c r="D8" s="141" t="s">
+      <c r="D8" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="142"/>
-      <c r="M8" s="142"/>
-      <c r="N8" s="142"/>
-      <c r="O8" s="142"/>
-      <c r="P8" s="143"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="141"/>
+      <c r="O8" s="141"/>
+      <c r="P8" s="142"/>
       <c r="R8" s="6" t="s">
         <v>361</v>
       </c>
@@ -12902,21 +12896,21 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="93"/>
       <c r="C9" s="94"/>
-      <c r="D9" s="141" t="s">
+      <c r="D9" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="142"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="143"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="141"/>
+      <c r="N9" s="141"/>
+      <c r="O9" s="141"/>
+      <c r="P9" s="142"/>
       <c r="R9" s="6" t="s">
         <v>363</v>
       </c>
@@ -12927,21 +12921,21 @@
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="93"/>
       <c r="C10" s="94"/>
-      <c r="D10" s="141" t="s">
+      <c r="D10" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="142"/>
-      <c r="M10" s="142"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="143"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="141"/>
+      <c r="O10" s="141"/>
+      <c r="P10" s="142"/>
       <c r="R10" s="6" t="s">
         <v>365</v>
       </c>
@@ -12951,22 +12945,22 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="93"/>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="141"/>
-      <c r="O11" s="141"/>
-      <c r="P11" s="150"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="146"/>
       <c r="R11" s="6" t="s">
         <v>367</v>
       </c>
@@ -12976,22 +12970,22 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="93"/>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="141"/>
-      <c r="O12" s="141"/>
-      <c r="P12" s="150"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="146"/>
       <c r="R12" s="6" t="s">
         <v>369</v>
       </c>
@@ -13023,23 +13017,23 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="148"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="148"/>
-      <c r="N14" s="148"/>
-      <c r="O14" s="148"/>
-      <c r="P14" s="149"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="154"/>
       <c r="R14" s="6" t="s">
         <v>372</v>
       </c>
@@ -13049,22 +13043,22 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="93"/>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="141"/>
-      <c r="N15" s="141"/>
-      <c r="O15" s="141"/>
-      <c r="P15" s="150"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="146"/>
       <c r="R15" s="6" t="s">
         <v>114</v>
       </c>
@@ -13075,21 +13069,21 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="93"/>
       <c r="C16" s="96"/>
-      <c r="D16" s="142" t="s">
+      <c r="D16" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
-      <c r="M16" s="142"/>
-      <c r="N16" s="142"/>
-      <c r="O16" s="142"/>
-      <c r="P16" s="143"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="141"/>
+      <c r="N16" s="141"/>
+      <c r="O16" s="141"/>
+      <c r="P16" s="142"/>
       <c r="R16" s="6" t="s">
         <v>112</v>
       </c>
@@ -13125,21 +13119,21 @@
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="93"/>
       <c r="C18" s="94"/>
-      <c r="D18" s="142" t="s">
+      <c r="D18" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="142"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="142"/>
-      <c r="O18" s="142"/>
-      <c r="P18" s="143"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="141"/>
+      <c r="N18" s="141"/>
+      <c r="O18" s="141"/>
+      <c r="P18" s="142"/>
       <c r="R18" s="6" t="s">
         <v>376</v>
       </c>
@@ -13150,21 +13144,21 @@
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="93"/>
       <c r="C19" s="94"/>
-      <c r="D19" s="142" t="s">
+      <c r="D19" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="142"/>
-      <c r="M19" s="142"/>
-      <c r="N19" s="142"/>
-      <c r="O19" s="142"/>
-      <c r="P19" s="143"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="141"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="141"/>
+      <c r="P19" s="142"/>
       <c r="R19" s="6" t="s">
         <v>118</v>
       </c>
@@ -13175,21 +13169,21 @@
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="93"/>
       <c r="C20" s="94"/>
-      <c r="D20" s="142" t="s">
+      <c r="D20" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="142"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="142"/>
-      <c r="O20" s="142"/>
-      <c r="P20" s="143"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="141"/>
+      <c r="N20" s="141"/>
+      <c r="O20" s="141"/>
+      <c r="P20" s="142"/>
       <c r="R20" s="6" t="s">
         <v>378</v>
       </c>
@@ -13198,21 +13192,21 @@
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="93"/>
       <c r="C21" s="94"/>
-      <c r="D21" s="142" t="s">
+      <c r="D21" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="142"/>
-      <c r="O21" s="142"/>
-      <c r="P21" s="143"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="141"/>
+      <c r="N21" s="141"/>
+      <c r="O21" s="141"/>
+      <c r="P21" s="142"/>
       <c r="R21" s="6" t="s">
         <v>379</v>
       </c>
@@ -13223,21 +13217,21 @@
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="93"/>
       <c r="C22" s="94"/>
-      <c r="D22" s="142" t="s">
+      <c r="D22" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="142"/>
-      <c r="N22" s="142"/>
-      <c r="O22" s="142"/>
-      <c r="P22" s="143"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="141"/>
+      <c r="N22" s="141"/>
+      <c r="O22" s="141"/>
+      <c r="P22" s="142"/>
       <c r="R22" s="6" t="s">
         <v>381</v>
       </c>
@@ -13248,21 +13242,21 @@
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="93"/>
       <c r="C23" s="94"/>
-      <c r="D23" s="142" t="s">
+      <c r="D23" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="142"/>
-      <c r="N23" s="142"/>
-      <c r="O23" s="142"/>
-      <c r="P23" s="143"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="141"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="142"/>
       <c r="R23" s="6" t="s">
         <v>383</v>
       </c>
@@ -13273,63 +13267,63 @@
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="93"/>
       <c r="C24" s="94"/>
-      <c r="D24" s="142" t="s">
+      <c r="D24" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="142"/>
-      <c r="M24" s="142"/>
-      <c r="N24" s="142"/>
-      <c r="O24" s="142"/>
-      <c r="P24" s="143"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="141"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="141"/>
+      <c r="L24" s="141"/>
+      <c r="M24" s="141"/>
+      <c r="N24" s="141"/>
+      <c r="O24" s="141"/>
+      <c r="P24" s="142"/>
       <c r="R24" s="6"/>
       <c r="S24" s="92"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="93"/>
       <c r="C25" s="94"/>
-      <c r="D25" s="142" t="s">
+      <c r="D25" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="142"/>
-      <c r="K25" s="142"/>
-      <c r="L25" s="142"/>
-      <c r="M25" s="142"/>
-      <c r="N25" s="142"/>
-      <c r="O25" s="142"/>
-      <c r="P25" s="143"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="141"/>
+      <c r="L25" s="141"/>
+      <c r="M25" s="141"/>
+      <c r="N25" s="141"/>
+      <c r="O25" s="141"/>
+      <c r="P25" s="142"/>
       <c r="R25" s="6"/>
       <c r="S25" s="92"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="93"/>
       <c r="C26" s="94"/>
-      <c r="D26" s="142" t="s">
+      <c r="D26" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="142"/>
-      <c r="K26" s="142"/>
-      <c r="L26" s="142"/>
-      <c r="M26" s="142"/>
-      <c r="N26" s="142"/>
-      <c r="O26" s="142"/>
-      <c r="P26" s="143"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="141"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="141"/>
+      <c r="N26" s="141"/>
+      <c r="O26" s="141"/>
+      <c r="P26" s="142"/>
       <c r="R26" s="6"/>
       <c r="S26" s="92"/>
     </row>
@@ -13354,148 +13348,148 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="93"/>
-      <c r="C28" s="141" t="s">
+      <c r="C28" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="150"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="146"/>
       <c r="R28" s="6"/>
       <c r="S28" s="92"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="93"/>
       <c r="C29" s="94"/>
-      <c r="D29" s="142" t="s">
+      <c r="D29" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="142"/>
-      <c r="N29" s="142"/>
-      <c r="O29" s="142"/>
-      <c r="P29" s="143"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="142"/>
       <c r="R29" s="6"/>
       <c r="S29" s="92"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="93"/>
       <c r="C30" s="94"/>
-      <c r="D30" s="142" t="s">
+      <c r="D30" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="142"/>
-      <c r="K30" s="142"/>
-      <c r="L30" s="142"/>
-      <c r="M30" s="142"/>
-      <c r="N30" s="142"/>
-      <c r="O30" s="142"/>
-      <c r="P30" s="143"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="141"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="141"/>
+      <c r="N30" s="141"/>
+      <c r="O30" s="141"/>
+      <c r="P30" s="142"/>
       <c r="R30" s="6"/>
       <c r="S30" s="92"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="93"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="142" t="s">
+      <c r="D31" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="142"/>
-      <c r="K31" s="142"/>
-      <c r="L31" s="142"/>
-      <c r="M31" s="142"/>
-      <c r="N31" s="142"/>
-      <c r="O31" s="142"/>
-      <c r="P31" s="143"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="141"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="141"/>
+      <c r="M31" s="141"/>
+      <c r="N31" s="141"/>
+      <c r="O31" s="141"/>
+      <c r="P31" s="142"/>
       <c r="R31" s="6"/>
       <c r="S31" s="92"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="93"/>
       <c r="C32" s="94"/>
-      <c r="D32" s="142" t="s">
+      <c r="D32" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="142"/>
-      <c r="K32" s="142"/>
-      <c r="L32" s="142"/>
-      <c r="M32" s="142"/>
-      <c r="N32" s="142"/>
-      <c r="O32" s="142"/>
-      <c r="P32" s="143"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="141"/>
+      <c r="O32" s="141"/>
+      <c r="P32" s="142"/>
       <c r="R32" s="6"/>
       <c r="S32" s="92"/>
     </row>
     <row r="33" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="93"/>
       <c r="C33" s="94"/>
-      <c r="D33" s="153" t="s">
+      <c r="D33" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="153"/>
-      <c r="K33" s="153"/>
-      <c r="L33" s="153"/>
-      <c r="M33" s="153"/>
-      <c r="N33" s="153"/>
-      <c r="O33" s="153"/>
-      <c r="P33" s="154"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="147"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="147"/>
+      <c r="P33" s="148"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
-      <c r="D34" s="151" t="s">
+      <c r="D34" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
-      <c r="N34" s="151"/>
-      <c r="O34" s="151"/>
-      <c r="P34" s="152"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="143"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="143"/>
+      <c r="K34" s="143"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="143"/>
+      <c r="N34" s="143"/>
+      <c r="O34" s="143"/>
+      <c r="P34" s="144"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
     </row>
@@ -14130,22 +14124,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="D34:P34"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="C28:P28"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="D16:P16"/>
     <mergeCell ref="B2:P2"/>
@@ -14160,6 +14138,22 @@
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D8:P8"/>
     <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="C28:P28"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D22:P22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14194,23 +14188,23 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="168"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="160"/>
       <c r="R2" s="6" t="s">
         <v>93</v>
       </c>
@@ -14222,23 +14216,23 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="165"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="157"/>
       <c r="R3" s="6" t="s">
         <v>194</v>
       </c>
@@ -14251,22 +14245,22 @@
     </row>
     <row r="4" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="103"/>
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="160"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="162"/>
       <c r="R4" s="6" t="s">
         <v>196</v>
       </c>
@@ -14279,22 +14273,22 @@
     </row>
     <row r="5" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="103"/>
-      <c r="C5" s="159" t="s">
+      <c r="C5" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="160"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="162"/>
       <c r="R5" s="6" t="s">
         <v>197</v>
       </c>
@@ -14308,21 +14302,21 @@
     <row r="6" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="103"/>
       <c r="C6" s="104"/>
-      <c r="D6" s="161" t="s">
+      <c r="D6" s="163" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="161"/>
-      <c r="N6" s="161"/>
-      <c r="O6" s="161"/>
-      <c r="P6" s="162"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="164"/>
       <c r="R6" s="6" t="s">
         <v>200</v>
       </c>
@@ -14336,21 +14330,21 @@
     <row r="7" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="103"/>
       <c r="C7" s="104"/>
-      <c r="D7" s="159" t="s">
+      <c r="D7" s="161" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="161"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="162"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="164"/>
       <c r="R7" s="6" t="s">
         <v>203</v>
       </c>
@@ -14364,21 +14358,21 @@
     <row r="8" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="103"/>
       <c r="C8" s="104"/>
-      <c r="D8" s="159" t="s">
+      <c r="D8" s="161" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
-      <c r="O8" s="161"/>
-      <c r="P8" s="162"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="164"/>
       <c r="R8" s="6" t="s">
         <v>206</v>
       </c>
@@ -14392,21 +14386,21 @@
     <row r="9" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="103"/>
       <c r="C9" s="104"/>
-      <c r="D9" s="159" t="s">
+      <c r="D9" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="162"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="164"/>
       <c r="R9" s="6" t="s">
         <v>209</v>
       </c>
@@ -14420,21 +14414,21 @@
     <row r="10" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="103"/>
       <c r="C10" s="104"/>
-      <c r="D10" s="159" t="s">
+      <c r="D10" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="162"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="164"/>
       <c r="R10" s="6" t="s">
         <v>92</v>
       </c>
@@ -14447,22 +14441,22 @@
     </row>
     <row r="11" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="103"/>
-      <c r="C11" s="159" t="s">
+      <c r="C11" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="159"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="159"/>
-      <c r="M11" s="159"/>
-      <c r="N11" s="159"/>
-      <c r="O11" s="159"/>
-      <c r="P11" s="160"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="162"/>
       <c r="R11" s="6" t="s">
         <v>94</v>
       </c>
@@ -14475,22 +14469,22 @@
     </row>
     <row r="12" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="103"/>
-      <c r="C12" s="159" t="s">
+      <c r="C12" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
-      <c r="O12" s="159"/>
-      <c r="P12" s="160"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="161"/>
+      <c r="N12" s="161"/>
+      <c r="O12" s="161"/>
+      <c r="P12" s="162"/>
       <c r="R12" s="6" t="s">
         <v>213</v>
       </c>
@@ -14528,23 +14522,23 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="163" t="s">
+      <c r="B14" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="164"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
-      <c r="L14" s="164"/>
-      <c r="M14" s="164"/>
-      <c r="N14" s="164"/>
-      <c r="O14" s="164"/>
-      <c r="P14" s="165"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="156"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="157"/>
       <c r="R14" s="6" t="s">
         <v>95</v>
       </c>
@@ -14557,22 +14551,22 @@
     </row>
     <row r="15" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="103"/>
-      <c r="C15" s="159" t="s">
+      <c r="C15" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="159"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
-      <c r="L15" s="159"/>
-      <c r="M15" s="159"/>
-      <c r="N15" s="159"/>
-      <c r="O15" s="159"/>
-      <c r="P15" s="160"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="162"/>
       <c r="R15" s="6" t="s">
         <v>217</v>
       </c>
@@ -14586,21 +14580,21 @@
     <row r="16" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="103"/>
       <c r="C16" s="106"/>
-      <c r="D16" s="161" t="s">
+      <c r="D16" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="161"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="161"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="162"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="163"/>
+      <c r="O16" s="163"/>
+      <c r="P16" s="164"/>
       <c r="R16" s="6" t="s">
         <v>220</v>
       </c>
@@ -14642,21 +14636,21 @@
     <row r="18" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="103"/>
       <c r="C18" s="104"/>
-      <c r="D18" s="161" t="s">
+      <c r="D18" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="162"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="163"/>
+      <c r="P18" s="164"/>
       <c r="R18" s="61" t="s">
         <v>226</v>
       </c>
@@ -14670,21 +14664,21 @@
     <row r="19" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="103"/>
       <c r="C19" s="104"/>
-      <c r="D19" s="161" t="s">
+      <c r="D19" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="161"/>
-      <c r="N19" s="161"/>
-      <c r="O19" s="161"/>
-      <c r="P19" s="162"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="163"/>
+      <c r="O19" s="163"/>
+      <c r="P19" s="164"/>
       <c r="R19" s="61" t="s">
         <v>229</v>
       </c>
@@ -14698,21 +14692,21 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="103"/>
       <c r="C20" s="104"/>
-      <c r="D20" s="161" t="s">
+      <c r="D20" s="163" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="162"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="163"/>
+      <c r="N20" s="163"/>
+      <c r="O20" s="163"/>
+      <c r="P20" s="164"/>
       <c r="R20" s="61" t="s">
         <v>96</v>
       </c>
@@ -14726,21 +14720,21 @@
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="103"/>
       <c r="C21" s="104"/>
-      <c r="D21" s="161" t="s">
+      <c r="D21" s="163" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
-      <c r="N21" s="161"/>
-      <c r="O21" s="161"/>
-      <c r="P21" s="162"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="163"/>
+      <c r="L21" s="163"/>
+      <c r="M21" s="163"/>
+      <c r="N21" s="163"/>
+      <c r="O21" s="163"/>
+      <c r="P21" s="164"/>
       <c r="R21" s="61" t="s">
         <v>232</v>
       </c>
@@ -14754,21 +14748,21 @@
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="103"/>
       <c r="C22" s="104"/>
-      <c r="D22" s="161" t="s">
+      <c r="D22" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="161"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="161"/>
-      <c r="P22" s="162"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="163"/>
+      <c r="O22" s="163"/>
+      <c r="P22" s="164"/>
       <c r="R22" s="61" t="s">
         <v>235</v>
       </c>
@@ -14782,21 +14776,21 @@
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="103"/>
       <c r="C23" s="104"/>
-      <c r="D23" s="161" t="s">
+      <c r="D23" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="161"/>
-      <c r="K23" s="161"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="161"/>
-      <c r="N23" s="161"/>
-      <c r="O23" s="161"/>
-      <c r="P23" s="162"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="163"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
+      <c r="O23" s="163"/>
+      <c r="P23" s="164"/>
       <c r="R23" s="61" t="s">
         <v>238</v>
       </c>
@@ -14810,21 +14804,21 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="103"/>
       <c r="C24" s="104"/>
-      <c r="D24" s="161" t="s">
+      <c r="D24" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="161"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="161"/>
-      <c r="M24" s="161"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="161"/>
-      <c r="P24" s="162"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="163"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="163"/>
+      <c r="O24" s="163"/>
+      <c r="P24" s="164"/>
       <c r="R24" s="61" t="s">
         <v>241</v>
       </c>
@@ -14838,21 +14832,21 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="103"/>
       <c r="C25" s="104"/>
-      <c r="D25" s="161" t="s">
+      <c r="D25" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="161"/>
-      <c r="K25" s="161"/>
-      <c r="L25" s="161"/>
-      <c r="M25" s="161"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="161"/>
-      <c r="P25" s="162"/>
+      <c r="E25" s="163"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="163"/>
+      <c r="K25" s="163"/>
+      <c r="L25" s="163"/>
+      <c r="M25" s="163"/>
+      <c r="N25" s="163"/>
+      <c r="O25" s="163"/>
+      <c r="P25" s="164"/>
       <c r="R25" s="61" t="s">
         <v>244</v>
       </c>
@@ -14866,21 +14860,21 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="103"/>
       <c r="C26" s="104"/>
-      <c r="D26" s="161" t="s">
+      <c r="D26" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="161"/>
-      <c r="K26" s="161"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="161"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="161"/>
-      <c r="P26" s="162"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="163"/>
+      <c r="K26" s="163"/>
+      <c r="L26" s="163"/>
+      <c r="M26" s="163"/>
+      <c r="N26" s="163"/>
+      <c r="O26" s="163"/>
+      <c r="P26" s="164"/>
       <c r="R26" s="61" t="s">
         <v>247</v>
       </c>
@@ -14894,21 +14888,21 @@
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="103"/>
       <c r="C27" s="104"/>
-      <c r="D27" s="161" t="s">
+      <c r="D27" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="161"/>
-      <c r="K27" s="161"/>
-      <c r="L27" s="161"/>
-      <c r="M27" s="161"/>
-      <c r="N27" s="161"/>
-      <c r="O27" s="161"/>
-      <c r="P27" s="162"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="163"/>
+      <c r="O27" s="163"/>
+      <c r="P27" s="164"/>
       <c r="R27" s="61" t="s">
         <v>250</v>
       </c>
@@ -14947,22 +14941,22 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="103"/>
-      <c r="C29" s="159" t="s">
+      <c r="C29" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="159"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="159"/>
-      <c r="K29" s="159"/>
-      <c r="L29" s="159"/>
-      <c r="M29" s="159"/>
-      <c r="N29" s="159"/>
-      <c r="O29" s="159"/>
-      <c r="P29" s="160"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="161"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="161"/>
+      <c r="N29" s="161"/>
+      <c r="O29" s="161"/>
+      <c r="P29" s="162"/>
       <c r="R29" s="6"/>
       <c r="S29" s="92"/>
       <c r="T29" s="92"/>
@@ -14970,21 +14964,21 @@
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="103"/>
       <c r="C30" s="104"/>
-      <c r="D30" s="161" t="s">
+      <c r="D30" s="163" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="161"/>
-      <c r="M30" s="161"/>
-      <c r="N30" s="161"/>
-      <c r="O30" s="161"/>
-      <c r="P30" s="162"/>
+      <c r="E30" s="163"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="163"/>
+      <c r="L30" s="163"/>
+      <c r="M30" s="163"/>
+      <c r="N30" s="163"/>
+      <c r="O30" s="163"/>
+      <c r="P30" s="164"/>
       <c r="R30" s="6"/>
       <c r="S30" s="92"/>
       <c r="T30" s="92"/>
@@ -14992,21 +14986,21 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="103"/>
       <c r="C31" s="104"/>
-      <c r="D31" s="161" t="s">
+      <c r="D31" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="161"/>
-      <c r="M31" s="161"/>
-      <c r="N31" s="161"/>
-      <c r="O31" s="161"/>
-      <c r="P31" s="162"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="163"/>
+      <c r="L31" s="163"/>
+      <c r="M31" s="163"/>
+      <c r="N31" s="163"/>
+      <c r="O31" s="163"/>
+      <c r="P31" s="164"/>
       <c r="R31" s="6"/>
       <c r="S31" s="92"/>
       <c r="T31" s="92"/>
@@ -15014,21 +15008,21 @@
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="103"/>
       <c r="C32" s="104"/>
-      <c r="D32" s="161" t="s">
+      <c r="D32" s="163" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="161"/>
-      <c r="M32" s="161"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="161"/>
-      <c r="P32" s="162"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="163"/>
+      <c r="K32" s="163"/>
+      <c r="L32" s="163"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="163"/>
+      <c r="O32" s="163"/>
+      <c r="P32" s="164"/>
       <c r="R32" s="6"/>
       <c r="S32" s="92"/>
       <c r="T32" s="92"/>
@@ -15036,21 +15030,21 @@
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="103"/>
       <c r="C33" s="104"/>
-      <c r="D33" s="161" t="s">
+      <c r="D33" s="163" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="161"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="161"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="161"/>
-      <c r="J33" s="161"/>
-      <c r="K33" s="161"/>
-      <c r="L33" s="161"/>
-      <c r="M33" s="161"/>
-      <c r="N33" s="161"/>
-      <c r="O33" s="161"/>
-      <c r="P33" s="162"/>
+      <c r="E33" s="163"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="163"/>
+      <c r="K33" s="163"/>
+      <c r="L33" s="163"/>
+      <c r="M33" s="163"/>
+      <c r="N33" s="163"/>
+      <c r="O33" s="163"/>
+      <c r="P33" s="164"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
@@ -15058,21 +15052,21 @@
     <row r="34" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="103"/>
       <c r="C34" s="104"/>
-      <c r="D34" s="155" t="s">
+      <c r="D34" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="155"/>
-      <c r="K34" s="155"/>
-      <c r="L34" s="155"/>
-      <c r="M34" s="155"/>
-      <c r="N34" s="155"/>
-      <c r="O34" s="155"/>
-      <c r="P34" s="156"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
+      <c r="K34" s="165"/>
+      <c r="L34" s="165"/>
+      <c r="M34" s="165"/>
+      <c r="N34" s="165"/>
+      <c r="O34" s="165"/>
+      <c r="P34" s="166"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
@@ -15080,21 +15074,21 @@
     <row r="35" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="103"/>
       <c r="C35" s="104"/>
-      <c r="D35" s="155" t="s">
+      <c r="D35" s="165" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="155"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="155"/>
-      <c r="J35" s="155"/>
-      <c r="K35" s="155"/>
-      <c r="L35" s="155"/>
-      <c r="M35" s="155"/>
-      <c r="N35" s="155"/>
-      <c r="O35" s="155"/>
-      <c r="P35" s="156"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="165"/>
+      <c r="L35" s="165"/>
+      <c r="M35" s="165"/>
+      <c r="N35" s="165"/>
+      <c r="O35" s="165"/>
+      <c r="P35" s="166"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
@@ -15102,21 +15096,21 @@
     <row r="36" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="109"/>
       <c r="C36" s="110"/>
-      <c r="D36" s="157" t="s">
+      <c r="D36" s="167" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="157"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="157"/>
-      <c r="K36" s="157"/>
-      <c r="L36" s="157"/>
-      <c r="M36" s="157"/>
-      <c r="N36" s="157"/>
-      <c r="O36" s="157"/>
-      <c r="P36" s="158"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="167"/>
+      <c r="H36" s="167"/>
+      <c r="I36" s="167"/>
+      <c r="J36" s="167"/>
+      <c r="K36" s="167"/>
+      <c r="L36" s="167"/>
+      <c r="M36" s="167"/>
+      <c r="N36" s="167"/>
+      <c r="O36" s="167"/>
+      <c r="P36" s="168"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
@@ -15193,6 +15187,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="C29:P29"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="D16:P16"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:P26"/>
     <mergeCell ref="B14:P14"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -15205,26 +15219,6 @@
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="C11:P11"/>
     <mergeCell ref="C12:P12"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="C15:P15"/>
-    <mergeCell ref="D16:P16"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="D36:P36"/>
-    <mergeCell ref="C29:P29"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D34:P34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
